--- a/biology/Biochimie/Galactokinase/Galactokinase.xlsx
+++ b/biology/Biochimie/Galactokinase/Galactokinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La galactokinase est une phosphotransférase qui catalyse la réaction :
 ATP + α-D-galactose  
         ⇌
     {\displaystyle \rightleftharpoons }
   ADP + α-D-galactose-1-phosphate.
-Cette enzyme intervient dans la voie de Leloir[2] de dégradation du galactose après conversion du β-D-galactose en α-D-galactose par l'aldose 1-épimérase et en vue de former de l'uridine diphosphate galactose à partir de l'α-D-galactose-1-phosphate sous l'action de la galactose-1-phosphate uridylyltransférase. Isolée à l'origine à partir de foie de mammifères, elle a par la suite été étudiée intensivement à partir de levure[3],[4], d'archées[5], de plantes[6],[7] et d'humains[8],[9].
+Cette enzyme intervient dans la voie de Leloir de dégradation du galactose après conversion du β-D-galactose en α-D-galactose par l'aldose 1-épimérase et en vue de former de l'uridine diphosphate galactose à partir de l'α-D-galactose-1-phosphate sous l'action de la galactose-1-phosphate uridylyltransférase. Isolée à l'origine à partir de foie de mammifères, elle a par la suite été étudiée intensivement à partir de levure d'archées, de plantes, et d'humains,.
 Chez l'homme, elle est codée par le gène GALK1. Une mutation de ce gène est susceptible de conduire à une galactosémie de type II ainsi qu'à une cataracte.
 </t>
         </is>
